--- a/biology/Écologie/Gustav_Lorentzen/Gustav_Lorentzen.xlsx
+++ b/biology/Écologie/Gustav_Lorentzen/Gustav_Lorentzen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustav Fredrik Lorentzen (13 janvier 1915–7 août 1995) est un thermodynamicien norvégien.
 Gustav Lorentzen a été professeur à l’Institut norvégien de technologie (NTH), et à l’Université norvégienne de sciences et de technologie (NTNU).
 À la fin des années 1980, Gustav Lorentzen a redécouvert comment le CO2 pouvait être utilisé comme fluide réfrigérant dans les systèmes de chauffage et de refroidissement. Avec son équipe, il a développé le cycle transcritique thermodynamique moderne entre 1988 et 1991.
-En 1988, Lorentzen a conçu une nouvelle manière, à la fois simple mais efficace de gérer les systèmes à CO2. Cette idée est devenue le point de départ de la réinvention de la technologie du refroidissement utilisant sur le CO2[1]. La société japonaise Denso a utilisé la thèse rédigée par Lorentzen sur ce sujet, dans le cadre d’un nouveau type de climatisation pour véhicules automobiles. La collaboration qui s’est ensuivie entre Lorentzen et Denso a conduit, ensuite, à la création de la pompe à chaleur EcoCute commercialisée dans les années 2000.
+En 1988, Lorentzen a conçu une nouvelle manière, à la fois simple mais efficace de gérer les systèmes à CO2. Cette idée est devenue le point de départ de la réinvention de la technologie du refroidissement utilisant sur le CO2. La société japonaise Denso a utilisé la thèse rédigée par Lorentzen sur ce sujet, dans le cadre d’un nouveau type de climatisation pour véhicules automobiles. La collaboration qui s’est ensuivie entre Lorentzen et Denso a conduit, ensuite, à la création de la pompe à chaleur EcoCute commercialisée dans les années 2000.
 </t>
         </is>
       </c>
